--- a/py/tests/new_struct_sim_experiments/2_symbols/results/inter_n/n_fisso_5/results_2_symbols_n_5.xlsx
+++ b/py/tests/new_struct_sim_experiments/2_symbols/results/inter_n/n_fisso_5/results_2_symbols_n_5.xlsx
@@ -15125,20 +15125,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average similarity</a:t>
+              <a:t>Average</a:t>
             </a:r>
-            <a:br>
-              <a:rPr lang="en-US"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>N_fisso = 5</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> &amp;&amp; N_mobile = 2: 50</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -15553,11 +15541,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116740272"/>
-        <c:axId val="2116743664"/>
+        <c:axId val="-799775488"/>
+        <c:axId val="-804802624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116740272"/>
+        <c:axId val="-799775488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15584,7 +15572,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>N mobile</a:t>
+                  <a:t>N</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15656,7 +15644,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116743664"/>
+        <c:crossAx val="-804802624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15664,7 +15652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116743664"/>
+        <c:axId val="-804802624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15705,7 +15693,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Similarity</a:t>
+                  <a:t>Average similarity</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15770,7 +15758,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116740272"/>
+        <c:crossAx val="-799775488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15902,41 +15890,6 @@
               <a:rPr lang="en-US"/>
               <a:t>Variance</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>N_fisso</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> = 5 &amp;&amp; N_mobile = 2 : 50</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -16365,11 +16318,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116769296"/>
-        <c:axId val="2116772688"/>
+        <c:axId val="-799762784"/>
+        <c:axId val="-799759392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116769296"/>
+        <c:axId val="-799762784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16396,7 +16349,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>N_mobile</a:t>
+                  <a:t>N</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -16468,7 +16421,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116772688"/>
+        <c:crossAx val="-799759392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16476,7 +16429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116772688"/>
+        <c:axId val="-799759392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16582,7 +16535,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116769296"/>
+        <c:crossAx val="-799762784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16698,22 +16651,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Iterazioni</a:t>
+              <a:t>Iterations</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>N_fisso = 5 &amp;&amp;</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> N_mobile = 2 : 50</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -17128,11 +17067,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116797296"/>
-        <c:axId val="2116800688"/>
+        <c:axId val="-799731648"/>
+        <c:axId val="-799727616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116797296"/>
+        <c:axId val="-799731648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17159,7 +17098,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>N mobile</a:t>
+                  <a:t>N</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -17231,7 +17170,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116800688"/>
+        <c:crossAx val="-799727616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17239,7 +17178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116800688"/>
+        <c:axId val="-799727616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17280,7 +17219,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Iterazioni</a:t>
+                  <a:t>Iterations</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -17345,7 +17284,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116797296"/>
+        <c:crossAx val="-799731648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18997,8 +18936,8 @@
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -19027,8 +18966,8 @@
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -19051,16 +18990,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19371,7 +19310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KF159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L110" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
